--- a/data/trans_orig/P44D-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P44D-Provincia-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4881</v>
+        <v>5084</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2786717215452303</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7018527970977017</v>
+        <v>0.7310077327737748</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -764,19 +764,19 @@
         <v>4021</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1109</v>
+        <v>1097</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8263</v>
+        <v>8447</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3632614115523042</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1001483947346091</v>
+        <v>0.09913111669237898</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7464077920993196</v>
+        <v>0.7630734664839429</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -785,19 +785,19 @@
         <v>5959</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2166</v>
+        <v>2155</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10911</v>
+        <v>10969</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3306232847691474</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1201488218747384</v>
+        <v>0.1195773225517682</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6053334704500115</v>
+        <v>0.6085494778433657</v>
       </c>
     </row>
     <row r="5">
@@ -814,7 +814,7 @@
         <v>5017</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2074</v>
+        <v>1871</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>6955</v>
@@ -823,7 +823,7 @@
         <v>0.7213282784547697</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2981472029022981</v>
+        <v>0.2689922672262251</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -835,19 +835,19 @@
         <v>7049</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2807</v>
+        <v>2623</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9961</v>
+        <v>9973</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6367385884476958</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2535922079006804</v>
+        <v>0.236926533516057</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.899851605265391</v>
+        <v>0.900868883307621</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -856,19 +856,19 @@
         <v>12066</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7114</v>
+        <v>7056</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15859</v>
+        <v>15870</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6693767152308526</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3946665295499884</v>
+        <v>0.3914505221566337</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8798511781252617</v>
+        <v>0.8804226774482318</v>
       </c>
     </row>
     <row r="6">
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9191</v>
+        <v>8973</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1296488107088343</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3811730867061019</v>
+        <v>0.3721159977628362</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6770</v>
+        <v>6678</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1110318853345244</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.331643075564534</v>
+        <v>0.327145230626108</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -1002,19 +1002,19 @@
         <v>5393</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1173</v>
+        <v>1196</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12197</v>
+        <v>12149</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1211139386751618</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0263460287114551</v>
+        <v>0.02685036983286719</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2739322712996004</v>
+        <v>0.2728445957256385</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>20987</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14922</v>
+        <v>15140</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>24113</v>
@@ -1040,7 +1040,7 @@
         <v>0.8703511892911657</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6188269132938981</v>
+        <v>0.6278840022371635</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1052,7 +1052,7 @@
         <v>18147</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13643</v>
+        <v>13735</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>20413</v>
@@ -1061,7 +1061,7 @@
         <v>0.8889681146654757</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6683569244354659</v>
+        <v>0.6728547693738919</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1073,19 +1073,19 @@
         <v>39133</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>32329</v>
+        <v>32377</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>43353</v>
+        <v>43330</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8788860613248382</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7260677287003998</v>
+        <v>0.7271554042743611</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9736539712885449</v>
+        <v>0.9731496301671329</v>
       </c>
     </row>
     <row r="9">
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4683</v>
+        <v>4638</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1108533215642973</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5079683572171638</v>
+        <v>0.5030913245392997</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4522</v>
+        <v>4773</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04757131371237944</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2105037240119864</v>
+        <v>0.2221708054705556</v>
       </c>
     </row>
     <row r="11">
@@ -1240,7 +1240,7 @@
         <v>8197</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4536</v>
+        <v>4581</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>9219</v>
@@ -1249,7 +1249,7 @@
         <v>0.8891466784357027</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4920316427828362</v>
+        <v>0.4969086754607003</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1274,7 +1274,7 @@
         <v>20460</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16960</v>
+        <v>16709</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>21482</v>
@@ -1283,7 +1283,7 @@
         <v>0.9524286862876206</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7894962759880139</v>
+        <v>0.77782919452944</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8134</v>
+        <v>7820</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.315651635041773</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7449704583449466</v>
+        <v>0.7161820394840775</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4085</v>
+        <v>4009</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06504331334256835</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2779387978650723</v>
+        <v>0.2727287322547065</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1420,19 +1420,19 @@
         <v>4403</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1022</v>
+        <v>1029</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11434</v>
+        <v>11993</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1718567246157124</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0398871762476577</v>
+        <v>0.04017369836547605</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4463298782931984</v>
+        <v>0.4681457746405884</v>
       </c>
     </row>
     <row r="14">
@@ -1449,7 +1449,7 @@
         <v>7472</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2785</v>
+        <v>3099</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>10919</v>
@@ -1458,7 +1458,7 @@
         <v>0.684348364958227</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2550295416550534</v>
+        <v>0.2838179605159225</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1470,7 +1470,7 @@
         <v>13743</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10614</v>
+        <v>10690</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>14699</v>
@@ -1479,7 +1479,7 @@
         <v>0.9349566866574316</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7220612021349276</v>
+        <v>0.7272712677452934</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1491,19 +1491,19 @@
         <v>21215</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14184</v>
+        <v>13625</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24596</v>
+        <v>24589</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8281432753842876</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.553670121706802</v>
+        <v>0.5318542253594098</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9601128237523423</v>
+        <v>0.959826301634524</v>
       </c>
     </row>
     <row r="15">
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4073</v>
+        <v>3984</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1563105405325049</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6467558091906417</v>
+        <v>0.6326438216136459</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5039</v>
+        <v>5093</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07652860144535019</v>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3916891228909968</v>
+        <v>0.3958723224637584</v>
       </c>
     </row>
     <row r="17">
@@ -1658,7 +1658,7 @@
         <v>5314</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2225</v>
+        <v>2314</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>6298</v>
@@ -1667,7 +1667,7 @@
         <v>0.8436894594674951</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3532441908093583</v>
+        <v>0.3673561783863542</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1692,7 +1692,7 @@
         <v>11880</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7825</v>
+        <v>7771</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>12864</v>
@@ -1701,7 +1701,7 @@
         <v>0.9234713985546498</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.608310877109003</v>
+        <v>0.6041276775362403</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4239</v>
+        <v>4778</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1026535851854434</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4127058918501391</v>
+        <v>0.4652201033341218</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5355</v>
+        <v>4654</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06365776030465072</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3233286484420826</v>
+        <v>0.2809737678380435</v>
       </c>
     </row>
     <row r="20">
@@ -1859,7 +1859,7 @@
         <v>9217</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6032</v>
+        <v>5493</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>10271</v>
@@ -1868,7 +1868,7 @@
         <v>0.8973464148145566</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.587294108149861</v>
+        <v>0.5347798966658655</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1893,7 +1893,7 @@
         <v>15509</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>11208</v>
+        <v>11909</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>16563</v>
@@ -1902,7 +1902,7 @@
         <v>0.9363422396953492</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6766713515579134</v>
+        <v>0.7190262321619539</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9264</v>
+        <v>7964</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1713156766866215</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5153891899923218</v>
+        <v>0.4430811533982754</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -2018,19 +2018,19 @@
         <v>10088</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4919</v>
+        <v>5073</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15715</v>
+        <v>15871</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4450996420036469</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2170340777403003</v>
+        <v>0.2238231665644611</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6933608986503346</v>
+        <v>0.7002616253948141</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -2039,19 +2039,19 @@
         <v>13167</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7001</v>
+        <v>6335</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>20886</v>
+        <v>20554</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3240086235470311</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1722803756357692</v>
+        <v>0.1558857441375212</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5139476678841756</v>
+        <v>0.5057724646684516</v>
       </c>
     </row>
     <row r="23">
@@ -2068,7 +2068,7 @@
         <v>14895</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8710</v>
+        <v>10010</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>17974</v>
@@ -2077,7 +2077,7 @@
         <v>0.8286843233133785</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4846108100076795</v>
+        <v>0.5569188466017246</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -2089,19 +2089,19 @@
         <v>12577</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6950</v>
+        <v>6794</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17746</v>
+        <v>17592</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5549003579963531</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3066391013496654</v>
+        <v>0.2997383746051859</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7829659222596997</v>
+        <v>0.776176833435539</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>25</v>
@@ -2110,19 +2110,19 @@
         <v>27471</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>19752</v>
+        <v>20084</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>33637</v>
+        <v>34303</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6759913764529689</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4860523321158242</v>
+        <v>0.4942275353315485</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8277196243642307</v>
+        <v>0.8441142558624796</v>
       </c>
     </row>
     <row r="24">
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6564</v>
+        <v>6539</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1463621331786831</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4363209534515337</v>
+        <v>0.4346191138072524</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6602</v>
+        <v>7012</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05242563790903641</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1571936967253047</v>
+        <v>0.1669433551866819</v>
       </c>
     </row>
     <row r="26">
@@ -2290,7 +2290,7 @@
         <v>12843</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8481</v>
+        <v>8506</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>15045</v>
@@ -2299,7 +2299,7 @@
         <v>0.8536378668213168</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5636790465484663</v>
+        <v>0.5653808861927475</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -2311,7 +2311,7 @@
         <v>39800</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>35400</v>
+        <v>34990</v>
       </c>
       <c r="T26" s="5" t="n">
         <v>42002</v>
@@ -2320,7 +2320,7 @@
         <v>0.9475743620909636</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8428063032746951</v>
+        <v>0.8330566448133181</v>
       </c>
       <c r="W26" s="6" t="n">
         <v>1</v>
@@ -2415,19 +2415,19 @@
         <v>14651</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>7649</v>
+        <v>7720</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>25553</v>
+        <v>24225</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1299922321537755</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06786992046948946</v>
+        <v>0.06849935987186968</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2267252243656264</v>
+        <v>0.2149385206294889</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>15</v>
@@ -2436,19 +2436,19 @@
         <v>19534</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>11936</v>
+        <v>11872</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>29160</v>
+        <v>29899</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1791890841173321</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1094933886086231</v>
+        <v>0.1089055714289755</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2674929413246837</v>
+        <v>0.2742737836556378</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>26</v>
@@ -2457,19 +2457,19 @@
         <v>34185</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>22078</v>
+        <v>23457</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>47531</v>
+        <v>47990</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1541809393775411</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09957490247078504</v>
+        <v>0.1057949689035786</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2143753298656221</v>
+        <v>0.2164450712193177</v>
       </c>
     </row>
     <row r="29">
@@ -2486,19 +2486,19 @@
         <v>98055</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>87153</v>
+        <v>88481</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>105057</v>
+        <v>104986</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8700077678462245</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7732747756343737</v>
+        <v>0.785061479370511</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9321300795305105</v>
+        <v>0.9315006401281303</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>84</v>
@@ -2507,19 +2507,19 @@
         <v>89479</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>79853</v>
+        <v>79114</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>97077</v>
+        <v>97141</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.820810915882668</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7325070586753162</v>
+        <v>0.7257262163443622</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8905066113913769</v>
+        <v>0.8910944285710244</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>170</v>
@@ -2528,19 +2528,19 @@
         <v>187534</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>174188</v>
+        <v>173729</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>199641</v>
+        <v>198262</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8458190606224589</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7856246701343778</v>
+        <v>0.7835549287806823</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9004250975292143</v>
+        <v>0.8942050310964214</v>
       </c>
     </row>
     <row r="30">
@@ -2876,19 +2876,19 @@
         <v>4884</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1710</v>
+        <v>1200</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10681</v>
+        <v>10599</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2090754110329297</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07318149472664272</v>
+        <v>0.05136743055092879</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.457231789205177</v>
+        <v>0.4536872957434566</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2910,19 +2910,19 @@
         <v>4884</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1181</v>
+        <v>1077</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10296</v>
+        <v>11348</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1242807992330275</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03005224667510837</v>
+        <v>0.02740088831565784</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2619807945176778</v>
+        <v>0.2887590062942081</v>
       </c>
     </row>
     <row r="5">
@@ -2939,19 +2939,19 @@
         <v>18477</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12680</v>
+        <v>12762</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21651</v>
+        <v>22161</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7909245889670703</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5427682107948237</v>
+        <v>0.5463127042565435</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9268185052733574</v>
+        <v>0.9486325694490714</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -2973,19 +2973,19 @@
         <v>34416</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>29004</v>
+        <v>27952</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38119</v>
+        <v>38223</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8757192007669725</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.738019205482321</v>
+        <v>0.7112409937057894</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9699477533248916</v>
+        <v>0.9725991116843421</v>
       </c>
     </row>
     <row r="6">
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4463</v>
+        <v>4288</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1925973931218123</v>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7938206912694401</v>
+        <v>0.7627795707272808</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5994</v>
+        <v>4462</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0643526256174462</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3562338185646916</v>
+        <v>0.2651493668922488</v>
       </c>
     </row>
     <row r="8">
@@ -3153,7 +3153,7 @@
         <v>4539</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1159</v>
+        <v>1334</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>5622</v>
@@ -3162,7 +3162,7 @@
         <v>0.8074026068781877</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2061793087305597</v>
+        <v>0.2372204292727192</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -3174,7 +3174,7 @@
         <v>15744</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10833</v>
+        <v>12365</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>16827</v>
@@ -3183,7 +3183,7 @@
         <v>0.9356473743825537</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6437661814353064</v>
+        <v>0.7348506331077512</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -3278,19 +3278,19 @@
         <v>2663</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>718</v>
+        <v>684</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6472</v>
+        <v>6467</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1458352766493449</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03931843231875328</v>
+        <v>0.03744059236807482</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3544430234149393</v>
+        <v>0.3541543121417065</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5542</v>
+        <v>6801</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07235573397374161</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.32513748681597</v>
+        <v>0.3990239794583461</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -3320,19 +3320,19 @@
         <v>3896</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1086</v>
+        <v>1108</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9050</v>
+        <v>9704</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1103604904637231</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03075648978882103</v>
+        <v>0.03137299583611282</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2563269847183208</v>
+        <v>0.274871302172801</v>
       </c>
     </row>
     <row r="11">
@@ -3349,19 +3349,19 @@
         <v>15597</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11788</v>
+        <v>11793</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17542</v>
+        <v>17576</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8541647233506551</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6455569765850607</v>
+        <v>0.6458456878582933</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9606815676812467</v>
+        <v>0.9625594076319252</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -3370,7 +3370,7 @@
         <v>15812</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11503</v>
+        <v>10244</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>17045</v>
@@ -3379,7 +3379,7 @@
         <v>0.9276442660262584</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6748625131840328</v>
+        <v>0.6009760205416543</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3391,19 +3391,19 @@
         <v>31409</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>26255</v>
+        <v>25601</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>34219</v>
+        <v>34197</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8896395095362769</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7436730152816798</v>
+        <v>0.725128697827199</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9692435102111792</v>
+        <v>0.9686270041638871</v>
       </c>
     </row>
     <row r="12">
@@ -3495,19 +3495,19 @@
         <v>4896</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1885</v>
+        <v>1856</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9748</v>
+        <v>9791</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1894621119058988</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07294197423686874</v>
+        <v>0.07180538994801315</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3772212227328118</v>
+        <v>0.378898838913327</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -3516,19 +3516,19 @@
         <v>3694</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1064</v>
+        <v>1116</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9302</v>
+        <v>8505</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1808916475879566</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05212535551280611</v>
+        <v>0.05466020182032817</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4555004869496992</v>
+        <v>0.4164711063465074</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -3537,19 +3537,19 @@
         <v>8590</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4041</v>
+        <v>4154</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14385</v>
+        <v>15538</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1856788886163028</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08734970770341491</v>
+        <v>0.0897931723037637</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3109474488716214</v>
+        <v>0.3358750959037684</v>
       </c>
     </row>
     <row r="14">
@@ -3566,19 +3566,19 @@
         <v>20945</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16093</v>
+        <v>16050</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23956</v>
+        <v>23985</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8105378880941012</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6227787772671873</v>
+        <v>0.621101161086673</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9270580257631313</v>
+        <v>0.9281946100519869</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -3587,19 +3587,19 @@
         <v>16727</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11119</v>
+        <v>11916</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19357</v>
+        <v>19305</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8191083524120434</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5444995130503004</v>
+        <v>0.5835288936534921</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9478746444871939</v>
+        <v>0.9453397981796718</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>35</v>
@@ -3608,19 +3608,19 @@
         <v>37672</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>31877</v>
+        <v>30724</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>42221</v>
+        <v>42108</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8143211113836971</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6890525511283786</v>
+        <v>0.6641249040962317</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9126502922965851</v>
+        <v>0.9102068276962365</v>
       </c>
     </row>
     <row r="15">
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4011</v>
+        <v>3881</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2004729161524254</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8131336145426604</v>
+        <v>0.7867512023121807</v>
       </c>
     </row>
     <row r="17">
@@ -3809,7 +3809,7 @@
         <v>3944</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>922</v>
+        <v>1052</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>4933</v>
@@ -3818,7 +3818,7 @@
         <v>0.7995270838475745</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1868663854573396</v>
+        <v>0.2132487976878297</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5451</v>
+        <v>4524</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09662368211746185</v>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5248137407030861</v>
+        <v>0.435570723137658</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4947</v>
+        <v>6100</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05284461721225565</v>
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2604735854284129</v>
+        <v>0.3212170294275408</v>
       </c>
     </row>
     <row r="20">
@@ -3976,7 +3976,7 @@
         <v>9383</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4936</v>
+        <v>5863</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>10387</v>
@@ -3985,7 +3985,7 @@
         <v>0.9033763178825381</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4751862592969141</v>
+        <v>0.5644292768623436</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -4010,7 +4010,7 @@
         <v>17987</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14044</v>
+        <v>12891</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>18991</v>
@@ -4019,7 +4019,7 @@
         <v>0.9471553827877444</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7395264145715875</v>
+        <v>0.6787829705724586</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -4114,19 +4114,19 @@
         <v>4279</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1160</v>
+        <v>1131</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10088</v>
+        <v>9834</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1068478403112125</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02897129789901982</v>
+        <v>0.02823562132289976</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2518766256384821</v>
+        <v>0.2455377362309673</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6723</v>
+        <v>7694</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07548175311105672</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2384038139055183</v>
+        <v>0.2728513629544102</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -4156,19 +4156,19 @@
         <v>6408</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2952</v>
+        <v>2237</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12852</v>
+        <v>12370</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09388857570691944</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04324582635852448</v>
+        <v>0.0327735871279467</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1883087719962875</v>
+        <v>0.1812390024525444</v>
       </c>
     </row>
     <row r="23">
@@ -4185,19 +4185,19 @@
         <v>35773</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>29964</v>
+        <v>30218</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>38892</v>
+        <v>38921</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8931521596887876</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7481233743615177</v>
+        <v>0.7544622637690329</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9710287021009802</v>
+        <v>0.9717643786771002</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>22</v>
@@ -4206,7 +4206,7 @@
         <v>26070</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>21475</v>
+        <v>20504</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>28198</v>
@@ -4215,7 +4215,7 @@
         <v>0.9245182468889432</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7615961860944817</v>
+        <v>0.7271486370455906</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -4227,19 +4227,19 @@
         <v>61842</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>55398</v>
+        <v>55880</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>65298</v>
+        <v>66013</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9061114242930806</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8116912280037126</v>
+        <v>0.8187609975474547</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9567541736414755</v>
+        <v>0.9672264128720532</v>
       </c>
     </row>
     <row r="24">
@@ -4331,19 +4331,19 @@
         <v>4197</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1065</v>
+        <v>1080</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8825</v>
+        <v>8994</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1647020477351738</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04179519333608043</v>
+        <v>0.04239760886847992</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3463168528203994</v>
+        <v>0.3529742586600357</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -4352,19 +4352,19 @@
         <v>4265</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7716</v>
+        <v>7692</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3873443517235638</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09673971428051284</v>
+        <v>0.0961161440424584</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7006573842849591</v>
+        <v>0.6985431759663991</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -4373,19 +4373,19 @@
         <v>8462</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4208</v>
+        <v>4162</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>14564</v>
+        <v>15419</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2318856668947626</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1152959851690059</v>
+        <v>0.1140558449097738</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3990799830729149</v>
+        <v>0.4225042048552977</v>
       </c>
     </row>
     <row r="26">
@@ -4402,19 +4402,19 @@
         <v>21285</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>16657</v>
+        <v>16488</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>24417</v>
+        <v>24402</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8352979522648262</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6536831471796007</v>
+        <v>0.6470257413399645</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9582048066639196</v>
+        <v>0.9576023911315201</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -4423,19 +4423,19 @@
         <v>6747</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3296</v>
+        <v>3320</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9947</v>
+        <v>9954</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6126556482764361</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2993426157150409</v>
+        <v>0.3014568240336007</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9032602857194872</v>
+        <v>0.9038838559575416</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>24</v>
@@ -4444,19 +4444,19 @@
         <v>28032</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>21930</v>
+        <v>21075</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>32286</v>
+        <v>32332</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7681143331052375</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6009200169270849</v>
+        <v>0.5774957951447023</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8847040148309941</v>
+        <v>0.8859441550902263</v>
       </c>
     </row>
     <row r="27">
@@ -4548,19 +4548,19 @@
         <v>22912</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>15258</v>
+        <v>14851</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>33296</v>
+        <v>31809</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.145419255586537</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09684172350371255</v>
+        <v>0.09425805024546974</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.211324891134571</v>
+        <v>0.201887416071744</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>11</v>
@@ -4569,19 +4569,19 @@
         <v>12404</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>6661</v>
+        <v>6351</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>21118</v>
+        <v>21020</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1140044804643591</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06121745751657975</v>
+        <v>0.05836799519533228</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1940928934743581</v>
+        <v>0.1931950527871795</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>33</v>
@@ -4590,19 +4590,19 @@
         <v>35316</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>25669</v>
+        <v>24697</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>48362</v>
+        <v>47816</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1325868921126236</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09636712251178511</v>
+        <v>0.09271824895462728</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1815658055732495</v>
+        <v>0.1795149900409775</v>
       </c>
     </row>
     <row r="29">
@@ -4619,19 +4619,19 @@
         <v>134646</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>124262</v>
+        <v>125749</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>142300</v>
+        <v>142707</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.854580744413463</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.788675108865429</v>
+        <v>0.7981125839282561</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9031582764962874</v>
+        <v>0.9057419497545303</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>82</v>
@@ -4640,19 +4640,19 @@
         <v>96400</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>87686</v>
+        <v>87784</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>102143</v>
+        <v>102453</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8859955195356408</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8059071065256413</v>
+        <v>0.8068049472128216</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9387825424834202</v>
+        <v>0.9416320048046682</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>211</v>
@@ -4661,19 +4661,19 @@
         <v>231046</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>218000</v>
+        <v>218546</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>240693</v>
+        <v>241665</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8674131078873764</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8184341944267498</v>
+        <v>0.8204850099590225</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9036328774882149</v>
+        <v>0.9072817510453728</v>
       </c>
     </row>
     <row r="30">
@@ -5009,19 +5009,19 @@
         <v>4328</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1480</v>
+        <v>1494</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8762</v>
+        <v>9008</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05885308654505216</v>
+        <v>0.05885308654505214</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02012474988842489</v>
+        <v>0.02032042809301083</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1191495707603317</v>
+        <v>0.1224881542775473</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -5030,19 +5030,19 @@
         <v>2483</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5460</v>
+        <v>5417</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06770972372538804</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02669613663473311</v>
+        <v>0.02665723032980069</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1488983533474869</v>
+        <v>0.1477231353985012</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -5051,19 +5051,19 @@
         <v>6811</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3777</v>
+        <v>3477</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11652</v>
+        <v>11668</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06180000126363035</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03427113219342463</v>
+        <v>0.03154514548180731</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1057272912738086</v>
+        <v>0.105869005799126</v>
       </c>
     </row>
     <row r="5">
@@ -5080,19 +5080,19 @@
         <v>69211</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>64777</v>
+        <v>64531</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>72059</v>
+        <v>72045</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9411469134549481</v>
+        <v>0.9411469134549478</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8808504292396682</v>
+        <v>0.8775118457224526</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9798752501115748</v>
+        <v>0.9796795719069891</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>70</v>
@@ -5101,19 +5101,19 @@
         <v>34187</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>31210</v>
+        <v>31253</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35691</v>
+        <v>35692</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.932290276274612</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8511016466525129</v>
+        <v>0.8522768646014994</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9733038633652668</v>
+        <v>0.9733427696701993</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>158</v>
@@ -5122,19 +5122,19 @@
         <v>103398</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>98557</v>
+        <v>98541</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>106432</v>
+        <v>106732</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9381999987363696</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8942727087261912</v>
+        <v>0.8941309942008741</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9657288678065745</v>
+        <v>0.968454854518193</v>
       </c>
     </row>
     <row r="6">
@@ -5226,19 +5226,19 @@
         <v>6608</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3075</v>
+        <v>2597</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13126</v>
+        <v>12714</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1000192094369608</v>
+        <v>0.1000192094369607</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04654516477655563</v>
+        <v>0.0393036885937607</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1986633984946687</v>
+        <v>0.1924290931243826</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -5247,19 +5247,19 @@
         <v>3088</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1221</v>
+        <v>1209</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6890</v>
+        <v>6871</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.0732061371287759</v>
+        <v>0.07320613712877588</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02894046652638991</v>
+        <v>0.02867081637429204</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1633683965046768</v>
+        <v>0.1629178385290853</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -5268,19 +5268,19 @@
         <v>9696</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4927</v>
+        <v>5346</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17129</v>
+        <v>16263</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08957195433069234</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04551795849610504</v>
+        <v>0.04938428822316965</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.158243554300095</v>
+        <v>0.1502432025744808</v>
       </c>
     </row>
     <row r="8">
@@ -5297,19 +5297,19 @@
         <v>59462</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>52944</v>
+        <v>53356</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>62995</v>
+        <v>63473</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8999807905630394</v>
+        <v>0.899980790563039</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8013366015053296</v>
+        <v>0.8075709068756181</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9534548352234441</v>
+        <v>0.9606963114062393</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>61</v>
@@ -5318,19 +5318,19 @@
         <v>39088</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>35286</v>
+        <v>35305</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>40955</v>
+        <v>40967</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9267938628712241</v>
+        <v>0.9267938628712239</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8366316034953232</v>
+        <v>0.8370821614709144</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9710595334736101</v>
+        <v>0.971329183625708</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>117</v>
@@ -5339,19 +5339,19 @@
         <v>98551</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>91118</v>
+        <v>91984</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>103320</v>
+        <v>102901</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9104280456693076</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8417564456999053</v>
+        <v>0.8497567974255196</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9544820415038949</v>
+        <v>0.9506157117768304</v>
       </c>
     </row>
     <row r="9">
@@ -5443,19 +5443,19 @@
         <v>3551</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1254</v>
+        <v>1339</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7769</v>
+        <v>7280</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06381021660309684</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0225355939019632</v>
+        <v>0.02406886632697421</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1396329923731468</v>
+        <v>0.130834237587082</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -5464,19 +5464,19 @@
         <v>5464</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2492</v>
+        <v>2450</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9895</v>
+        <v>9644</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09552696499408447</v>
+        <v>0.09552696499408445</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04356305752137546</v>
+        <v>0.04282384947358912</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.172981171306873</v>
+        <v>0.1685874137360745</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -5485,19 +5485,19 @@
         <v>9015</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5379</v>
+        <v>5616</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14615</v>
+        <v>15183</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07988786530609811</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04766816266281028</v>
+        <v>0.04976930607882391</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1295143872445715</v>
+        <v>0.1345464420115202</v>
       </c>
     </row>
     <row r="11">
@@ -5514,19 +5514,19 @@
         <v>52091</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>47873</v>
+        <v>48362</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>54388</v>
+        <v>54303</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9361897833969034</v>
+        <v>0.9361897833969032</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8603670076268534</v>
+        <v>0.8691657624129179</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9774644060980369</v>
+        <v>0.9759311336730258</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>94</v>
@@ -5535,19 +5535,19 @@
         <v>51738</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>47307</v>
+        <v>47558</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>54710</v>
+        <v>54752</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9044730350059156</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8270188286931272</v>
+        <v>0.8314125862639258</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9564369424786244</v>
+        <v>0.957176150526411</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>169</v>
@@ -5556,19 +5556,19 @@
         <v>103829</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>98229</v>
+        <v>97661</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>107465</v>
+        <v>107228</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.920112134693902</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8704856127554285</v>
+        <v>0.8654535579884798</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9523318373371898</v>
+        <v>0.9502306939211762</v>
       </c>
     </row>
     <row r="12">
@@ -5660,19 +5660,19 @@
         <v>5880</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2579</v>
+        <v>2709</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10860</v>
+        <v>10766</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09827090443167795</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04310332940076172</v>
+        <v>0.04527343213410355</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1815009695565333</v>
+        <v>0.179925733787008</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -5681,19 +5681,19 @@
         <v>8120</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5093</v>
+        <v>4740</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12589</v>
+        <v>13077</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.126460477016989</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07931852105586473</v>
+        <v>0.07381964653074781</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1960794014934157</v>
+        <v>0.2036773584412545</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -5702,19 +5702,19 @@
         <v>14000</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9420</v>
+        <v>9085</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19972</v>
+        <v>20567</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1128622818492035</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07594413999504941</v>
+        <v>0.07324029434292176</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1610127570667752</v>
+        <v>0.1658046069550171</v>
       </c>
     </row>
     <row r="14">
@@ -5731,19 +5731,19 @@
         <v>53956</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>48976</v>
+        <v>49070</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>57257</v>
+        <v>57127</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.901729095568322</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8184990304434663</v>
+        <v>0.8200742662129921</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9568966705992382</v>
+        <v>0.954726567865896</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>107</v>
@@ -5752,19 +5752,19 @@
         <v>56086</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51617</v>
+        <v>51129</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>59113</v>
+        <v>59466</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8735395229830111</v>
+        <v>0.873539522983011</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.803920598506584</v>
+        <v>0.7963226415587457</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9206814789441352</v>
+        <v>0.9261803534692521</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>172</v>
@@ -5773,19 +5773,19 @@
         <v>110042</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>104070</v>
+        <v>103475</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>114622</v>
+        <v>114957</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8871377181507963</v>
+        <v>0.8871377181507965</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8389872429332245</v>
+        <v>0.8341953930449828</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9240558600049503</v>
+        <v>0.9267597056570781</v>
       </c>
     </row>
     <row r="15">
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3154</v>
+        <v>3375</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07482023966853249</v>
@@ -5889,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2332958940446793</v>
+        <v>0.2496695299844618</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -5901,16 +5901,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2325</v>
+        <v>2099</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0284003460374227</v>
+        <v>0.02840034603742271</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1576633587156638</v>
+        <v>0.1423520962714264</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -5919,19 +5919,19 @@
         <v>1430</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3989</v>
+        <v>3694</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.05060405962076053</v>
+        <v>0.05060405962076051</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01550108293858974</v>
+        <v>0.01473348842237153</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1411258371438936</v>
+        <v>0.1307076504233329</v>
       </c>
     </row>
     <row r="17">
@@ -5948,7 +5948,7 @@
         <v>12508</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10365</v>
+        <v>10144</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>13519</v>
@@ -5957,7 +5957,7 @@
         <v>0.9251797603314674</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7667041059553208</v>
+        <v>0.7503304700155372</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -5969,7 +5969,7 @@
         <v>14326</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12420</v>
+        <v>12646</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>14745</v>
@@ -5978,7 +5978,7 @@
         <v>0.9715996539625773</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8423366412843335</v>
+        <v>0.8576479037285734</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -5990,19 +5990,19 @@
         <v>26834</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24275</v>
+        <v>24570</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>27826</v>
+        <v>27848</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9493959403792397</v>
+        <v>0.9493959403792394</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.858874162856104</v>
+        <v>0.869292349576666</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9844989170614101</v>
+        <v>0.9852665115776285</v>
       </c>
     </row>
     <row r="18">
@@ -6094,19 +6094,19 @@
         <v>1597</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4451</v>
+        <v>4350</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.04221336194570092</v>
+        <v>0.04221336194570093</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01259189834828405</v>
+        <v>0.01230752713387135</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1176250386310895</v>
+        <v>0.1149559557034686</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -6118,16 +6118,16 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.02395454848552305</v>
+        <v>0.02395454848552306</v>
       </c>
       <c r="O19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07389839794410931</v>
+        <v>0.07381901721011898</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -6136,19 +6136,19 @@
         <v>2341</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5367</v>
+        <v>5612</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.03398645108029558</v>
+        <v>0.0339864510802956</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01229247041761783</v>
+        <v>0.01231493253700094</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07793555495629485</v>
+        <v>0.08149198853531787</v>
       </c>
     </row>
     <row r="20">
@@ -6165,19 +6165,19 @@
         <v>36240</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33386</v>
+        <v>33487</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>37361</v>
+        <v>37371</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9577866380542991</v>
+        <v>0.9577866380542993</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8823749613689108</v>
+        <v>0.8850440442965313</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9874081016517158</v>
+        <v>0.9876924728661286</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>61</v>
@@ -6186,7 +6186,7 @@
         <v>30286</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>28736</v>
+        <v>28738</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>31029</v>
@@ -6195,7 +6195,7 @@
         <v>0.976045451514477</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9261016020558908</v>
+        <v>0.9261809827898809</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -6207,19 +6207,19 @@
         <v>66525</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>63499</v>
+        <v>63254</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>68019</v>
+        <v>68018</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9660135489197041</v>
+        <v>0.9660135489197048</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9220644450437051</v>
+        <v>0.918508011464682</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9877075295823819</v>
+        <v>0.9876850674629989</v>
       </c>
     </row>
     <row r="21">
@@ -6311,19 +6311,19 @@
         <v>22864</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14959</v>
+        <v>15599</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31755</v>
+        <v>32126</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1847795865593128</v>
+        <v>0.1847795865593127</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1208922615376669</v>
+        <v>0.1260659323374013</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2566368582264655</v>
+        <v>0.2596340511404278</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -6332,19 +6332,19 @@
         <v>10306</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6164</v>
+        <v>6129</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16082</v>
+        <v>15847</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07611279572040713</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04551988838308648</v>
+        <v>0.04526084736212856</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1187684975038844</v>
+        <v>0.1170271621868154</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>39</v>
@@ -6353,19 +6353,19 @@
         <v>33171</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24291</v>
+        <v>24980</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>43698</v>
+        <v>43936</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1279990205171017</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09373396833372669</v>
+        <v>0.0963935683798902</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1686237313972328</v>
+        <v>0.1695422758877406</v>
       </c>
     </row>
     <row r="23">
@@ -6382,19 +6382,19 @@
         <v>100873</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>91982</v>
+        <v>91611</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>108778</v>
+        <v>108138</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8152204134406872</v>
+        <v>0.8152204134406871</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7433631417735345</v>
+        <v>0.7403659488595721</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8791077384623331</v>
+        <v>0.8739340676625986</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>182</v>
@@ -6403,19 +6403,19 @@
         <v>125103</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>119327</v>
+        <v>119562</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>129245</v>
+        <v>129280</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.923887204279593</v>
+        <v>0.9238872042795929</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8812315024961156</v>
+        <v>0.8829728378131847</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9544801116169133</v>
+        <v>0.9547391526378712</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>285</v>
@@ -6424,19 +6424,19 @@
         <v>225976</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>215449</v>
+        <v>215211</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>234856</v>
+        <v>234167</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8720009794828983</v>
+        <v>0.8720009794828982</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8313762686027671</v>
+        <v>0.8304577241122597</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9062660316662733</v>
+        <v>0.9036064316201098</v>
       </c>
     </row>
     <row r="24">
@@ -6528,19 +6528,19 @@
         <v>10533</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6002</v>
+        <v>6054</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17387</v>
+        <v>18104</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.07323913421429043</v>
+        <v>0.07323913421429047</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04173406910150645</v>
+        <v>0.0420955034617408</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1208929135358049</v>
+        <v>0.1258794206135414</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -6549,19 +6549,19 @@
         <v>7883</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4420</v>
+        <v>4071</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13116</v>
+        <v>13277</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05306330144930494</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02975184010104074</v>
+        <v>0.02740228434314182</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08828740470130012</v>
+        <v>0.08937238131994762</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>24</v>
@@ -6570,19 +6570,19 @@
         <v>18416</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>12063</v>
+        <v>11760</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>26304</v>
+        <v>25531</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06298753204861181</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04125733380724724</v>
+        <v>0.04022193739640146</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0899651495678916</v>
+        <v>0.08732210172044745</v>
       </c>
     </row>
     <row r="26">
@@ -6599,19 +6599,19 @@
         <v>133286</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>126432</v>
+        <v>125715</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>137817</v>
+        <v>137765</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9267608657857095</v>
+        <v>0.9267608657857098</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.879107086464195</v>
+        <v>0.8741205793864585</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9582659308984935</v>
+        <v>0.957904496538259</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>222</v>
@@ -6620,19 +6620,19 @@
         <v>140680</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>135447</v>
+        <v>135286</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>144143</v>
+        <v>144492</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9469366985506952</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9117125952987</v>
+        <v>0.9106276186800524</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9702481598989593</v>
+        <v>0.9725977156568582</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>399</v>
@@ -6641,19 +6641,19 @@
         <v>273967</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>266079</v>
+        <v>266852</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>280320</v>
+        <v>280623</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9370124679513883</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9100348504321081</v>
+        <v>0.9126778982795524</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9587426661927527</v>
+        <v>0.9597780626035984</v>
       </c>
     </row>
     <row r="27">
@@ -6745,19 +6745,19 @@
         <v>56373</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>44137</v>
+        <v>43632</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>71434</v>
+        <v>70696</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.098210893276025</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0768936675397817</v>
+        <v>0.0760141445166426</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1244494632997211</v>
+        <v>0.1231635693200616</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>65</v>
@@ -6766,19 +6766,19 @@
         <v>38506</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>30281</v>
+        <v>30421</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>48752</v>
+        <v>48255</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.07265279448669638</v>
+        <v>0.0726527944866964</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05713289448839835</v>
+        <v>0.05739803517462967</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09198426324093016</v>
+        <v>0.09104620030575747</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>131</v>
@@ -6787,19 +6787,19 @@
         <v>94879</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>79904</v>
+        <v>79773</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>112011</v>
+        <v>112170</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.08594112537005211</v>
+        <v>0.08594112537005212</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07237665745842482</v>
+        <v>0.0722577442665724</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1014593771050384</v>
+        <v>0.1016033005307841</v>
       </c>
     </row>
     <row r="29">
@@ -6816,19 +6816,19 @@
         <v>517627</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>502566</v>
+        <v>503304</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>529863</v>
+        <v>530368</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9017891067239752</v>
+        <v>0.9017891067239751</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8755505367002787</v>
+        <v>0.8768364306799385</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9231063324602182</v>
+        <v>0.9239858554833573</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>835</v>
@@ -6837,19 +6837,19 @@
         <v>491496</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>481250</v>
+        <v>481747</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>499721</v>
+        <v>499581</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9273472055133037</v>
+        <v>0.9273472055133039</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.908015736759068</v>
+        <v>0.9089537996942423</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9428671055116009</v>
+        <v>0.9426019648253705</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1482</v>
@@ -6858,19 +6858,19 @@
         <v>1009123</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>991991</v>
+        <v>991832</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1024098</v>
+        <v>1024229</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9140588746299478</v>
+        <v>0.9140588746299479</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8985406228949615</v>
+        <v>0.898396699469216</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9276233425415753</v>
+        <v>0.9277422557334278</v>
       </c>
     </row>
     <row r="30">
